--- a/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB0AB6-9893-4A05-9D63-2F3189F129FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B65135-1CB2-4E80-B664-5CB4608A48A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -228,9 +228,6 @@
     <t>Site Web Base</t>
   </si>
   <si>
-    <t>Project Set-Up</t>
-  </si>
-  <si>
     <t>Diagramme de Gantt</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>Merge et finalisation du projet</t>
+  </si>
+  <si>
+    <t>Échancier V2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas </t>
+  </si>
+  <si>
+    <t>Project Set-Up et Organisation</t>
   </si>
 </sst>
 </file>
@@ -1340,23 +1346,23 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1965,11 +1971,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="68"/>
     </row>
@@ -2016,108 +2022,108 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>44965</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>44963</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>44970</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>44977</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>44984</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>44991</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>44998</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45005</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45012</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -2379,15 +2385,15 @@
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2395,27 +2401,27 @@
       </c>
       <c r="M6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="R6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2423,27 +2429,27 @@
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="U6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="X6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="Y6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2451,27 +2457,27 @@
       </c>
       <c r="AA6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="AB6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AD6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AE6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AF6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2479,27 +2485,27 @@
       </c>
       <c r="AH6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="AI6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AJ6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AK6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AL6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AM6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2507,27 +2513,27 @@
       </c>
       <c r="AO6" s="10" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="AP6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AQ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AR6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AS6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AT6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2535,27 +2541,27 @@
       </c>
       <c r="AV6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AX6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AY6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AZ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BA6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2563,27 +2569,27 @@
       </c>
       <c r="BC6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="BD6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BE6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BF6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BG6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BH6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2591,15 +2597,15 @@
       </c>
       <c r="BJ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>v</v>
       </c>
       <c r="BK6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BL6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>d</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2674,7 +2680,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2682,7 +2688,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H37" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2829,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>47</v>
@@ -2909,13 +2915,13 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E11" s="72">
         <v>44965</v>
@@ -2989,26 +2995,24 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="72">
+        <f>E11</f>
         <v>44965</v>
       </c>
       <c r="F12" s="72">
-        <f>E12+13</f>
+        <f>F11</f>
         <v>44978</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
+      <c r="H12" s="14"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -3025,7 +3029,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
       <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
+      <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="31"/>
@@ -3069,10 +3073,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3085,7 +3089,10 @@
         <v>44978</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -3146,21 +3153,23 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F14" s="72">
+        <f>E14+13</f>
+        <v>44978</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -3177,7 +3186,7 @@
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
       <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
@@ -3219,22 +3228,27 @@
       <c r="BL14" s="31"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="72">
+        <v>45007</v>
+      </c>
+      <c r="F15" s="72">
+        <f>E15+7</f>
+        <v>45014</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3294,27 +3308,22 @@
       <c r="BL15" s="31"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="75">
-        <v>44965</v>
-      </c>
-      <c r="F16" s="75">
-        <f>E16+17</f>
-        <v>44982</v>
-      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="H16" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3374,9 +3383,9 @@
       <c r="BL16" s="31"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>46</v>
@@ -3388,13 +3397,13 @@
         <v>44965</v>
       </c>
       <c r="F17" s="75">
-        <f>E17+20</f>
-        <v>44985</v>
+        <f>E17+17</f>
+        <v>44982</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3408,8 +3417,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3456,25 +3465,25 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="20">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="75">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c r="F18" s="75">
-        <f>E18+19</f>
+        <f>E18+20</f>
         <v>44985</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3488,8 +3497,8 @@
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
       <c r="Y18" s="31"/>
@@ -3536,25 +3545,25 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D19" s="20">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="75">
         <v>44966</v>
       </c>
       <c r="F19" s="75">
-        <f>E19+30</f>
-        <v>44996</v>
+        <f>E19+19</f>
+        <v>44985</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -3572,7 +3581,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="32"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3616,10 +3625,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="20">
         <v>0.1</v>
@@ -3652,7 +3661,7 @@
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
       <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
+      <c r="Y20" s="32"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
       <c r="AB20" s="31"/>
@@ -3694,22 +3703,27 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="75">
+        <v>44966</v>
+      </c>
+      <c r="F21" s="75">
+        <f>E21+30</f>
+        <v>44996</v>
+      </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3769,22 +3783,22 @@
       <c r="BL21" s="31"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="e">
+      <c r="H22" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -3846,7 +3860,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
@@ -3921,7 +3935,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
@@ -3996,7 +4010,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="23"/>
@@ -4071,18 +4085,21 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="78">
-        <v>44965</v>
-      </c>
-      <c r="F26" s="78">
-        <v>44966</v>
+      <c r="E26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>27</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -4143,21 +4160,18 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="63" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>27</v>
+      <c r="E27" s="78">
+        <v>44965</v>
+      </c>
+      <c r="F27" s="78">
+        <v>44966</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -4216,20 +4230,22 @@
       <c r="BL27" s="31"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4289,22 +4305,20 @@
       <c r="BL28" s="31"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="81" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="e">
+      <c r="H29" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -4366,7 +4380,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
@@ -4441,7 +4455,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
@@ -4516,7 +4530,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="26"/>
@@ -4591,7 +4605,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="26"/>
@@ -4665,13 +4679,22 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="64"/>
+      <c r="B34" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="59"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="E34" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>27</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -4730,19 +4753,14 @@
       <c r="BL34" s="31"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
@@ -4801,103 +4819,174 @@
       <c r="BL35" s="31"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="str">
+      <c r="A36" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="33"/>
-      <c r="BH36" s="33"/>
-      <c r="BI36" s="33"/>
-      <c r="BJ36" s="33"/>
-      <c r="BK36" s="33"/>
-      <c r="BL36" s="33"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="31"/>
+      <c r="BA36" s="31"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="31"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="31"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="33"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="33"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="33"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="33"/>
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="33"/>
+      <c r="BH37" s="33"/>
+      <c r="BI37" s="33"/>
+      <c r="BJ37" s="33"/>
+      <c r="BK37" s="33"/>
+      <c r="BL37" s="33"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="F38" s="47"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
+  <conditionalFormatting sqref="D7:D37">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4911,12 +5000,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL36">
+  <conditionalFormatting sqref="I5:BL37">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL36">
+  <conditionalFormatting sqref="I7:BL37">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
@@ -4939,7 +5028,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="35" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="1048575" man="1"/>
@@ -4963,7 +5052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5077,6 +5166,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5364,36 +5482,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5412,24 +5521,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B65135-1CB2-4E80-B664-5CB4608A48A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCDFD3-65C0-4FD9-AD98-C87FE55B5588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -117,9 +117,6 @@
 Insérez de nouvelles lignes au-dessus de celle-ci pour continuer d’élaborer votre planning de projet.</t>
   </si>
   <si>
-    <t>TITRE DU PROJET</t>
-  </si>
-  <si>
     <t>TÂCHE</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Les entreprises trouveront également des modèles de facture, de feuille de temps, de suivi d’inventaire, d’états financiers et de planification de projet. Les enseignants et les étudiants pourront utiliser des ressources variées, notamment des emplois du temps, des carnets de notes et des feuilles de présence. Organisez votre vie famille avec des planificateurs de repas, des listes de contrôle et des journaux d’entraînement. Chaque modèle est minutieusement étudié, affiné et amélioré au fil du temps grâce aux commentaires de milliers d’utilisateurs.</t>
   </si>
   <si>
-    <t>Tâche 6</t>
-  </si>
-  <si>
     <t>Alexei</t>
   </si>
   <si>
@@ -249,18 +243,12 @@
     <t>Création d'un serveure local</t>
   </si>
   <si>
-    <t>Page Web Prototype</t>
-  </si>
-  <si>
     <t>Échéancier de départ</t>
   </si>
   <si>
     <t xml:space="preserve">Document d'analyze </t>
   </si>
   <si>
-    <t xml:space="preserve">Creation d'une page html dynamique </t>
-  </si>
-  <si>
     <t>Apprentissage de sql</t>
   </si>
   <si>
@@ -280,6 +268,33 @@
   </si>
   <si>
     <t>Project Set-Up et Organisation</t>
+  </si>
+  <si>
+    <t>Creation d'une classe qui parle entre le front et back-end</t>
+  </si>
+  <si>
+    <t>classe prototype sql</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Page "workout"</t>
+  </si>
+  <si>
+    <t>Button ajouter exercice</t>
+  </si>
+  <si>
+    <t>Classe Exercice</t>
+  </si>
+  <si>
+    <t>Classe Workout</t>
+  </si>
+  <si>
+    <t>Workout Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Profille </t>
   </si>
 </sst>
 </file>
@@ -287,14 +302,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="d"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1033,7 +1048,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1042,10 +1057,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -1055,7 +1070,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1289,136 +1304,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Début du projet" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Entrée" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Milliers" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Milliers [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Monétaire" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Monétaire [0]" xfId="16" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="20" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Nom" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Tâche" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Texte explicatif" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="12">
@@ -1974,158 +1989,156 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92">
+        <v>48</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>44965</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="94"/>
+      <c r="C4" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>44963</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>44970</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>44977</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>44984</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>44991</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>44998</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>45005</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>45012</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -2360,40 +2373,40 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2401,27 +2414,27 @@
       </c>
       <c r="M6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="R6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2429,27 +2442,27 @@
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="U6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="X6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Y6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Z6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2457,27 +2470,27 @@
       </c>
       <c r="AA6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AB6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AD6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AE6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AF6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AG6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2485,27 +2498,27 @@
       </c>
       <c r="AH6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AI6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AJ6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AK6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AL6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AM6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AN6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2513,27 +2526,27 @@
       </c>
       <c r="AO6" s="10" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AP6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AQ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AR6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AS6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AT6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AU6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2541,27 +2554,27 @@
       </c>
       <c r="AV6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AX6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AY6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AZ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BA6" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f>LEFT(TEXT(BA5,"jjj"),1)</f>
+        <v>j</v>
       </c>
       <c r="BB6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2569,27 +2582,27 @@
       </c>
       <c r="BC6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BD6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BE6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BF6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BG6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BH6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BI6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2597,18 +2610,18 @@
       </c>
       <c r="BJ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BK6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BL6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2675,12 +2688,12 @@
       <c r="BK7" s="31"/>
       <c r="BL7" s="31"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2748,15 +2761,15 @@
       <c r="BK8" s="31"/>
       <c r="BL8" s="31"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2830,15 +2843,15 @@
       <c r="BK9" s="31"/>
       <c r="BL9" s="31"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2912,13 +2925,13 @@
       <c r="BK10" s="31"/>
       <c r="BL10" s="31"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -2992,13 +3005,13 @@
       <c r="BK11" s="31"/>
       <c r="BL11" s="31"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3070,13 +3083,13 @@
       <c r="BK12" s="31"/>
       <c r="BL12" s="31"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3150,13 +3163,13 @@
       <c r="BK13" s="31"/>
       <c r="BL13" s="31"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="45"/>
       <c r="B14" s="61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -3227,16 +3240,16 @@
       <c r="BK14" s="31"/>
       <c r="BL14" s="31"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="45"/>
       <c r="B15" s="61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15" s="72">
         <v>45007</v>
@@ -3307,15 +3320,15 @@
       <c r="BK15" s="31"/>
       <c r="BL15" s="31"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="73"/>
@@ -3382,28 +3395,28 @@
       <c r="BK16" s="31"/>
       <c r="BL16" s="31"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="20">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="75">
         <v>44965</v>
       </c>
       <c r="F17" s="75">
-        <f>E17+17</f>
-        <v>44982</v>
+        <f>E17+50</f>
+        <v>45015</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3462,16 +3475,16 @@
       <c r="BK17" s="31"/>
       <c r="BL17" s="31"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E18" s="75">
         <v>44965</v>
@@ -3542,16 +3555,16 @@
       <c r="BK18" s="31"/>
       <c r="BL18" s="31"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="75">
         <v>44966</v>
@@ -3622,28 +3635,29 @@
       <c r="BK19" s="31"/>
       <c r="BL19" s="31"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="20">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E20" s="75">
-        <v>44966</v>
+        <f>F17</f>
+        <v>45015</v>
       </c>
       <c r="F20" s="75">
-        <f>E20+30</f>
-        <v>44996</v>
+        <f>E20+20</f>
+        <v>45035</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3702,28 +3716,28 @@
       <c r="BK20" s="31"/>
       <c r="BL20" s="31"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="45"/>
       <c r="B21" s="62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="20">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E21" s="75">
         <v>44966</v>
       </c>
       <c r="F21" s="75">
-        <f>E21+30</f>
-        <v>44996</v>
+        <f>E21+49</f>
+        <v>45015</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3782,15 +3796,15 @@
       <c r="BK21" s="31"/>
       <c r="BL21" s="31"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="76"/>
@@ -3857,23 +3871,28 @@
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F23" s="78">
+        <f>E23+16</f>
+        <v>45016</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14" t="e">
+      <c r="H23" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -3932,23 +3951,28 @@
       <c r="BK23" s="31"/>
       <c r="BL23" s="31"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F24" s="78">
+        <f t="shared" ref="F24:F28" si="6">E24+16</f>
+        <v>45016</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
+        <f t="shared" si="5"/>
         <v>17</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -4007,23 +4031,28 @@
       <c r="BK24" s="31"/>
       <c r="BL24" s="31"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F25" s="78">
+        <f t="shared" si="6"/>
+        <v>45016</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14" t="e">
+      <c r="H25" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -4082,23 +4111,28 @@
       <c r="BK25" s="31"/>
       <c r="BL25" s="31"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F26" s="78">
+        <f t="shared" si="6"/>
+        <v>45016</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
+      <c r="H26" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4157,18 +4191,23 @@
       <c r="BK26" s="31"/>
       <c r="BL26" s="31"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
       <c r="E27" s="78">
-        <v>44965</v>
+        <v>45000</v>
       </c>
       <c r="F27" s="78">
-        <v>44966</v>
+        <f t="shared" si="6"/>
+        <v>45016</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -4229,23 +4268,28 @@
       <c r="BK27" s="31"/>
       <c r="BL27" s="31"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>27</v>
+      <c r="D28" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="78">
+        <v>45015</v>
+      </c>
+      <c r="F28" s="78">
+        <f t="shared" si="6"/>
+        <v>45031</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="e">
+      <c r="H28" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4304,12 +4348,12 @@
       <c r="BK28" s="31"/>
       <c r="BL28" s="31"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="25"/>
@@ -4377,18 +4421,18 @@
       <c r="BK29" s="31"/>
       <c r="BL29" s="31"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
       <c r="E30" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="e">
@@ -4452,18 +4496,18 @@
       <c r="BK30" s="31"/>
       <c r="BL30" s="31"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
       <c r="E31" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="e">
@@ -4527,18 +4571,18 @@
       <c r="BK31" s="31"/>
       <c r="BL31" s="31"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="45"/>
       <c r="B32" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="26"/>
       <c r="E32" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="e">
@@ -4602,18 +4646,18 @@
       <c r="BK32" s="31"/>
       <c r="BL32" s="31"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="45"/>
       <c r="B33" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="26"/>
       <c r="E33" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="e">
@@ -4677,18 +4721,18 @@
       <c r="BK33" s="31"/>
       <c r="BL33" s="31"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="45"/>
       <c r="B34" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="26"/>
       <c r="E34" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14" t="e">
@@ -4752,7 +4796,7 @@
       <c r="BK34" s="31"/>
       <c r="BL34" s="31"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
       <c r="B35" s="64"/>
       <c r="C35" s="59"/>
@@ -4818,7 +4862,7 @@
       <c r="BK35" s="31"/>
       <c r="BL35" s="31"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="45" t="s">
         <v>12</v>
       </c>
@@ -4889,12 +4933,12 @@
       <c r="BK36" s="31"/>
       <c r="BL36" s="31"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
@@ -4962,29 +5006,29 @@
       <c r="BK37" s="33"/>
       <c r="BL37" s="33"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="11"/>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D37">
     <cfRule type="dataBar" priority="14">
@@ -5018,12 +5062,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5068,88 +5109,88 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="90.6640625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="36"/>
     </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="42"/>
     </row>
-    <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="8" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="11" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row r="14" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
+    <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+    <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5166,35 +5207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5482,27 +5494,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5521,4 +5542,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Échéancier/Diaggrame_De_Gantt_Workout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCDFD3-65C0-4FD9-AD98-C87FE55B5588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81185B1A-F5E6-42B5-8610-401C4FB380C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -120,21 +120,6 @@
     <t>TÂCHE</t>
   </si>
   <si>
-    <t>Tâche 1</t>
-  </si>
-  <si>
-    <t>Tâche 2</t>
-  </si>
-  <si>
-    <t>Tâche 3</t>
-  </si>
-  <si>
-    <t>Tâche 4</t>
-  </si>
-  <si>
-    <t>Tâche 5</t>
-  </si>
-  <si>
     <t>Insérez les nouvelle lignes au-dessus de celle-ci.</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
   </si>
   <si>
     <t>DÉBUT</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>FIN</t>
@@ -294,7 +276,55 @@
     <t>Workout Tracker</t>
   </si>
   <si>
-    <t xml:space="preserve">Page Profille </t>
+    <t>Power point final</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Guide Du projet final</t>
+  </si>
+  <si>
+    <t>Preuve de fonctionement</t>
+  </si>
+  <si>
+    <t>Serveur dans le cloud</t>
+  </si>
+  <si>
+    <t>Création d'une base de donner</t>
+  </si>
+  <si>
+    <t>Création d'un système d'utilisateur</t>
+  </si>
+  <si>
+    <t>Ajouter Password</t>
+  </si>
+  <si>
+    <t>Ajouter login email</t>
+  </si>
+  <si>
+    <t>Sauvgarder les entrainements</t>
+  </si>
+  <si>
+    <t>Partager les workouts</t>
+  </si>
+  <si>
+    <t>Page ajouter des exercices</t>
+  </si>
+  <si>
+    <t>Page Profille et login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Home (Ia page princiapale) </t>
+  </si>
+  <si>
+    <t>Page partager avec moi</t>
+  </si>
+  <si>
+    <t>Page settings</t>
+  </si>
+  <si>
+    <t>Page des routines créer par l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -302,14 +332,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="d"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1048,7 +1078,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1057,10 +1087,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -1070,9 +1100,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1111,7 +1141,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1304,80 +1334,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1986,33 +2019,33 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2021,124 +2054,124 @@
       <c r="H1" s="2"/>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+        <v>42</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>44965</v>
       </c>
-      <c r="F3" s="94"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="92"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="91">
+        <v>10</v>
+      </c>
+      <c r="I4" s="89">
         <f>I5</f>
-        <v>44963</v>
-      </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+        <v>45026</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
-        <v>44970</v>
-      </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+        <v>45033</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
-        <v>44977</v>
-      </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+        <v>45040</v>
+      </c>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
-        <v>44984</v>
-      </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+        <v>45047</v>
+      </c>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
-        <v>44991</v>
-      </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+        <v>45054</v>
+      </c>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
-        <v>44998</v>
-      </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+        <v>45061</v>
+      </c>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
-        <v>45005</v>
-      </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+        <v>45068</v>
+      </c>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
-        <v>45012</v>
-      </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45075</v>
+      </c>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -2150,230 +2183,230 @@
       <c r="G5" s="66"/>
       <c r="I5" s="85">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44963</v>
+        <v>45026</v>
       </c>
       <c r="J5" s="86">
         <f>I5+1</f>
-        <v>44964</v>
+        <v>45027</v>
       </c>
       <c r="K5" s="86">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44965</v>
+        <v>45028</v>
       </c>
       <c r="L5" s="86">
         <f t="shared" si="0"/>
-        <v>44966</v>
+        <v>45029</v>
       </c>
       <c r="M5" s="86">
         <f t="shared" si="0"/>
-        <v>44967</v>
+        <v>45030</v>
       </c>
       <c r="N5" s="86">
         <f t="shared" si="0"/>
-        <v>44968</v>
+        <v>45031</v>
       </c>
       <c r="O5" s="87">
         <f t="shared" si="0"/>
-        <v>44969</v>
+        <v>45032</v>
       </c>
       <c r="P5" s="85">
         <f>O5+1</f>
-        <v>44970</v>
+        <v>45033</v>
       </c>
       <c r="Q5" s="86">
         <f>P5+1</f>
-        <v>44971</v>
+        <v>45034</v>
       </c>
       <c r="R5" s="86">
         <f t="shared" si="0"/>
-        <v>44972</v>
+        <v>45035</v>
       </c>
       <c r="S5" s="86">
         <f t="shared" si="0"/>
-        <v>44973</v>
+        <v>45036</v>
       </c>
       <c r="T5" s="86">
         <f t="shared" si="0"/>
-        <v>44974</v>
+        <v>45037</v>
       </c>
       <c r="U5" s="86">
         <f t="shared" si="0"/>
-        <v>44975</v>
+        <v>45038</v>
       </c>
       <c r="V5" s="87">
         <f t="shared" si="0"/>
-        <v>44976</v>
+        <v>45039</v>
       </c>
       <c r="W5" s="85">
         <f>V5+1</f>
-        <v>44977</v>
+        <v>45040</v>
       </c>
       <c r="X5" s="86">
         <f>W5+1</f>
-        <v>44978</v>
+        <v>45041</v>
       </c>
       <c r="Y5" s="86">
         <f t="shared" si="0"/>
-        <v>44979</v>
+        <v>45042</v>
       </c>
       <c r="Z5" s="86">
         <f t="shared" si="0"/>
-        <v>44980</v>
+        <v>45043</v>
       </c>
       <c r="AA5" s="86">
         <f t="shared" si="0"/>
-        <v>44981</v>
+        <v>45044</v>
       </c>
       <c r="AB5" s="86">
         <f t="shared" si="0"/>
-        <v>44982</v>
+        <v>45045</v>
       </c>
       <c r="AC5" s="87">
         <f t="shared" si="0"/>
-        <v>44983</v>
+        <v>45046</v>
       </c>
       <c r="AD5" s="85">
         <f>AC5+1</f>
-        <v>44984</v>
+        <v>45047</v>
       </c>
       <c r="AE5" s="86">
         <f>AD5+1</f>
-        <v>44985</v>
+        <v>45048</v>
       </c>
       <c r="AF5" s="86">
         <f t="shared" si="0"/>
-        <v>44986</v>
+        <v>45049</v>
       </c>
       <c r="AG5" s="86">
         <f t="shared" si="0"/>
-        <v>44987</v>
+        <v>45050</v>
       </c>
       <c r="AH5" s="86">
         <f t="shared" si="0"/>
-        <v>44988</v>
+        <v>45051</v>
       </c>
       <c r="AI5" s="86">
         <f t="shared" si="0"/>
-        <v>44989</v>
+        <v>45052</v>
       </c>
       <c r="AJ5" s="87">
         <f t="shared" si="0"/>
-        <v>44990</v>
+        <v>45053</v>
       </c>
       <c r="AK5" s="85">
         <f>AJ5+1</f>
-        <v>44991</v>
+        <v>45054</v>
       </c>
       <c r="AL5" s="86">
         <f>AK5+1</f>
-        <v>44992</v>
+        <v>45055</v>
       </c>
       <c r="AM5" s="86">
         <f t="shared" si="0"/>
-        <v>44993</v>
+        <v>45056</v>
       </c>
       <c r="AN5" s="86">
         <f t="shared" si="0"/>
-        <v>44994</v>
+        <v>45057</v>
       </c>
       <c r="AO5" s="86">
         <f t="shared" si="0"/>
-        <v>44995</v>
+        <v>45058</v>
       </c>
       <c r="AP5" s="86">
         <f t="shared" si="0"/>
-        <v>44996</v>
+        <v>45059</v>
       </c>
       <c r="AQ5" s="87">
         <f t="shared" si="0"/>
-        <v>44997</v>
+        <v>45060</v>
       </c>
       <c r="AR5" s="85">
         <f>AQ5+1</f>
-        <v>44998</v>
+        <v>45061</v>
       </c>
       <c r="AS5" s="86">
         <f>AR5+1</f>
-        <v>44999</v>
+        <v>45062</v>
       </c>
       <c r="AT5" s="86">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>45063</v>
       </c>
       <c r="AU5" s="86">
         <f t="shared" si="0"/>
-        <v>45001</v>
+        <v>45064</v>
       </c>
       <c r="AV5" s="86">
         <f t="shared" si="0"/>
-        <v>45002</v>
+        <v>45065</v>
       </c>
       <c r="AW5" s="86">
         <f t="shared" si="0"/>
-        <v>45003</v>
+        <v>45066</v>
       </c>
       <c r="AX5" s="87">
         <f t="shared" si="0"/>
-        <v>45004</v>
+        <v>45067</v>
       </c>
       <c r="AY5" s="85">
         <f>AX5+1</f>
-        <v>45005</v>
+        <v>45068</v>
       </c>
       <c r="AZ5" s="86">
         <f>AY5+1</f>
-        <v>45006</v>
+        <v>45069</v>
       </c>
       <c r="BA5" s="86">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45007</v>
+        <v>45070</v>
       </c>
       <c r="BB5" s="86">
         <f t="shared" si="1"/>
-        <v>45008</v>
+        <v>45071</v>
       </c>
       <c r="BC5" s="86">
         <f t="shared" si="1"/>
-        <v>45009</v>
+        <v>45072</v>
       </c>
       <c r="BD5" s="86">
         <f t="shared" si="1"/>
-        <v>45010</v>
+        <v>45073</v>
       </c>
       <c r="BE5" s="87">
         <f t="shared" si="1"/>
-        <v>45011</v>
+        <v>45074</v>
       </c>
       <c r="BF5" s="85">
         <f>BE5+1</f>
-        <v>45012</v>
+        <v>45075</v>
       </c>
       <c r="BG5" s="86">
         <f>BF5+1</f>
-        <v>45013</v>
+        <v>45076</v>
       </c>
       <c r="BH5" s="86">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45014</v>
+        <v>45077</v>
       </c>
       <c r="BI5" s="86">
         <f t="shared" si="2"/>
-        <v>45015</v>
+        <v>45078</v>
       </c>
       <c r="BJ5" s="86">
         <f t="shared" si="2"/>
-        <v>45016</v>
+        <v>45079</v>
       </c>
       <c r="BK5" s="86">
         <f t="shared" si="2"/>
-        <v>45017</v>
+        <v>45080</v>
       </c>
       <c r="BL5" s="87">
         <f t="shared" si="2"/>
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -2381,20 +2414,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
@@ -2621,7 +2654,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2688,12 +2721,12 @@
       <c r="BK7" s="31"/>
       <c r="BL7" s="31"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2701,7 +2734,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H37" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H49" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2761,15 +2794,15 @@
       <c r="BK8" s="31"/>
       <c r="BL8" s="31"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2843,15 +2876,15 @@
       <c r="BK9" s="31"/>
       <c r="BL9" s="31"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2925,13 +2958,13 @@
       <c r="BK10" s="31"/>
       <c r="BL10" s="31"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -3005,13 +3038,13 @@
       <c r="BK11" s="31"/>
       <c r="BL11" s="31"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3083,13 +3116,13 @@
       <c r="BK12" s="31"/>
       <c r="BL12" s="31"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3163,13 +3196,13 @@
       <c r="BK13" s="31"/>
       <c r="BL13" s="31"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="61" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -3240,13 +3273,13 @@
       <c r="BK14" s="31"/>
       <c r="BL14" s="31"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -3320,15 +3353,15 @@
       <c r="BK15" s="31"/>
       <c r="BL15" s="31"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="73"/>
@@ -3395,16 +3428,16 @@
       <c r="BK16" s="31"/>
       <c r="BL16" s="31"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="62" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E17" s="75">
         <v>44965</v>
@@ -3475,13 +3508,13 @@
       <c r="BK17" s="31"/>
       <c r="BL17" s="31"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="20">
         <v>1</v>
@@ -3555,13 +3588,13 @@
       <c r="BK18" s="31"/>
       <c r="BL18" s="31"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="55" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>61</v>
       </c>
       <c r="D19" s="20">
         <v>1</v>
@@ -3635,16 +3668,16 @@
       <c r="BK19" s="31"/>
       <c r="BL19" s="31"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" s="20">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E20" s="75">
         <f>F17</f>
@@ -3716,16 +3749,16 @@
       <c r="BK20" s="31"/>
       <c r="BL20" s="31"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="62" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21" s="20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E21" s="75">
         <v>44966</v>
@@ -3796,24 +3829,26 @@
       <c r="BK21" s="31"/>
       <c r="BL21" s="31"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F22" s="75">
+        <f>E22+33</f>
+        <v>45065</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -3871,29 +3906,26 @@
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="78">
-        <v>45000</v>
-      </c>
-      <c r="F23" s="78">
-        <f>E23+16</f>
-        <v>45016</v>
+      <c r="B23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" ref="F23:F28" si="6">E23+33</f>
+        <v>45065</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -3951,29 +3983,26 @@
       <c r="BK23" s="31"/>
       <c r="BL23" s="31"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="E24" s="78">
-        <v>45000</v>
-      </c>
-      <c r="F24" s="78">
-        <f t="shared" ref="F24:F28" si="6">E24+16</f>
-        <v>45016</v>
+      <c r="B24" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F24" s="75">
+        <f t="shared" si="6"/>
+        <v>45065</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -4031,29 +4060,26 @@
       <c r="BK24" s="31"/>
       <c r="BL24" s="31"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="B25" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="78">
-        <v>45000</v>
-      </c>
-      <c r="F25" s="78">
+      <c r="E25" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F25" s="75">
         <f t="shared" si="6"/>
-        <v>45016</v>
+        <v>45065</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -4111,29 +4137,26 @@
       <c r="BK25" s="31"/>
       <c r="BL25" s="31"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
-      <c r="B26" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="B26" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="20">
         <v>1</v>
       </c>
-      <c r="E26" s="78">
-        <v>45000</v>
-      </c>
-      <c r="F26" s="78">
+      <c r="E26" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F26" s="75">
         <f t="shared" si="6"/>
-        <v>45016</v>
+        <v>45065</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -4191,23 +4214,23 @@
       <c r="BK26" s="31"/>
       <c r="BL26" s="31"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="B27" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="78">
-        <v>45000</v>
-      </c>
-      <c r="F27" s="78">
+      <c r="E27" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F27" s="75">
         <f t="shared" si="6"/>
-        <v>45016</v>
+        <v>45065</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -4268,29 +4291,26 @@
       <c r="BK27" s="31"/>
       <c r="BL27" s="31"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="78">
-        <v>45015</v>
-      </c>
-      <c r="F28" s="78">
+      <c r="B28" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="75">
+        <v>45032</v>
+      </c>
+      <c r="F28" s="75">
         <f t="shared" si="6"/>
-        <v>45031</v>
+        <v>45065</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -4348,17 +4368,19 @@
       <c r="BK28" s="31"/>
       <c r="BL28" s="31"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
+      <c r="B29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="str">
         <f t="shared" si="5"/>
@@ -4421,23 +4443,28 @@
       <c r="BK29" s="31"/>
       <c r="BL29" s="31"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="81" t="s">
-        <v>26</v>
+      <c r="B30" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="23">
+        <v>1</v>
+      </c>
+      <c r="E30" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F30" s="78">
+        <f>E30+16</f>
+        <v>45016</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="e">
+      <c r="H30" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -4496,23 +4523,28 @@
       <c r="BK30" s="31"/>
       <c r="BL30" s="31"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
-      <c r="B31" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>26</v>
+      <c r="B31" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F31" s="78">
+        <f t="shared" ref="F31:F36" si="7">E31+16</f>
+        <v>45016</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14" t="e">
+      <c r="H31" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -4571,23 +4603,28 @@
       <c r="BK31" s="31"/>
       <c r="BL31" s="31"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F32" s="78">
+        <f t="shared" si="7"/>
+        <v>45016</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14">
+        <f t="shared" si="5"/>
         <v>17</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -4646,23 +4683,28 @@
       <c r="BK32" s="31"/>
       <c r="BL32" s="31"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="81" t="s">
-        <v>26</v>
+      <c r="B33" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F33" s="78">
+        <f t="shared" si="7"/>
+        <v>45016</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14" t="e">
+      <c r="H33" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -4721,24 +4763,26 @@
       <c r="BK33" s="31"/>
       <c r="BL33" s="31"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="81" t="s">
-        <v>26</v>
+      <c r="B34" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1</v>
+      </c>
+      <c r="E34" s="78">
+        <v>45000</v>
+      </c>
+      <c r="F34" s="78">
+        <f t="shared" si="7"/>
+        <v>45016</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -4796,15 +4840,29 @@
       <c r="BK34" s="31"/>
       <c r="BL34" s="31"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
+      <c r="B35" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="78">
+        <v>45015</v>
+      </c>
+      <c r="F35" s="78">
+        <f t="shared" si="7"/>
+        <v>45031</v>
+      </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
@@ -4862,20 +4920,26 @@
       <c r="BK35" s="31"/>
       <c r="BL35" s="31"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1</v>
+      </c>
+      <c r="E36" s="78">
+        <v>45032</v>
+      </c>
+      <c r="F36" s="78">
+        <f t="shared" si="7"/>
+        <v>45048</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H36" s="14"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
@@ -4933,104 +4997,1013 @@
       <c r="BK36" s="31"/>
       <c r="BL36" s="31"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30" t="str">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1</v>
+      </c>
+      <c r="E37" s="78">
+        <v>45032</v>
+      </c>
+      <c r="F37" s="78">
+        <f>E37+33</f>
+        <v>45065</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="23">
+        <v>1</v>
+      </c>
+      <c r="E38" s="78">
+        <v>45032</v>
+      </c>
+      <c r="F38" s="78">
+        <f t="shared" ref="F38:F40" si="8">E38+33</f>
+        <v>45065</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="78">
+        <v>45032</v>
+      </c>
+      <c r="F39" s="78">
+        <f t="shared" si="8"/>
+        <v>45065</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+    </row>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="E40" s="78">
+        <v>45032</v>
+      </c>
+      <c r="F40" s="78">
+        <f t="shared" si="8"/>
+        <v>45065</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="33"/>
-      <c r="BB37" s="33"/>
-      <c r="BC37" s="33"/>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="33"/>
-      <c r="BH37" s="33"/>
-      <c r="BI37" s="33"/>
-      <c r="BJ37" s="33"/>
-      <c r="BK37" s="33"/>
-      <c r="BL37" s="33"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="12"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="95">
+        <v>45032</v>
+      </c>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="31"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="31"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="31"/>
+      <c r="AZ41" s="31"/>
+      <c r="BA41" s="31"/>
+      <c r="BB41" s="31"/>
+      <c r="BC41" s="31"/>
+      <c r="BD41" s="31"/>
+      <c r="BE41" s="31"/>
+      <c r="BF41" s="31"/>
+      <c r="BG41" s="31"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+      <c r="B42" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="81">
+        <v>45066</v>
+      </c>
+      <c r="F42" s="81">
+        <f>E42+3</f>
+        <v>45069</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="31"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
+      <c r="AR42" s="31"/>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
+      <c r="BD42" s="31"/>
+      <c r="BE42" s="31"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
+      <c r="BH42" s="31"/>
+      <c r="BI42" s="31"/>
+      <c r="BJ42" s="31"/>
+      <c r="BK42" s="31"/>
+      <c r="BL42" s="31"/>
+    </row>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
+      <c r="B43" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="81">
+        <v>45066</v>
+      </c>
+      <c r="F43" s="81">
+        <f t="shared" ref="F43:F45" si="9">E43+3</f>
+        <v>45069</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="31"/>
+      <c r="AL43" s="31"/>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+      <c r="AO43" s="31"/>
+      <c r="AP43" s="31"/>
+      <c r="AQ43" s="31"/>
+      <c r="AR43" s="31"/>
+      <c r="AS43" s="31"/>
+      <c r="AT43" s="31"/>
+      <c r="AU43" s="31"/>
+      <c r="AV43" s="31"/>
+      <c r="AW43" s="31"/>
+      <c r="AX43" s="31"/>
+      <c r="AY43" s="31"/>
+      <c r="AZ43" s="31"/>
+      <c r="BA43" s="31"/>
+      <c r="BB43" s="31"/>
+      <c r="BC43" s="31"/>
+      <c r="BD43" s="31"/>
+      <c r="BE43" s="31"/>
+      <c r="BF43" s="31"/>
+      <c r="BG43" s="31"/>
+      <c r="BH43" s="31"/>
+      <c r="BI43" s="31"/>
+      <c r="BJ43" s="31"/>
+      <c r="BK43" s="31"/>
+      <c r="BL43" s="31"/>
+    </row>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45"/>
+      <c r="B44" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1</v>
+      </c>
+      <c r="E44" s="81">
+        <v>45066</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" si="9"/>
+        <v>45069</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="31"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="31"/>
+      <c r="BJ44" s="31"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="31"/>
+    </row>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1</v>
+      </c>
+      <c r="E45" s="81">
+        <v>45066</v>
+      </c>
+      <c r="F45" s="81">
+        <f t="shared" si="9"/>
+        <v>45069</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+      <c r="AO45" s="31"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
+      <c r="AR45" s="31"/>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
+      <c r="AV45" s="31"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+      <c r="BD45" s="31"/>
+      <c r="BE45" s="31"/>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="31"/>
+      <c r="BH45" s="31"/>
+      <c r="BI45" s="31"/>
+      <c r="BJ45" s="31"/>
+      <c r="BK45" s="31"/>
+      <c r="BL45" s="31"/>
+    </row>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46" s="31"/>
+      <c r="AP46" s="31"/>
+      <c r="AQ46" s="31"/>
+      <c r="AR46" s="31"/>
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31"/>
+      <c r="AW46" s="31"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31"/>
+      <c r="AZ46" s="31"/>
+      <c r="BA46" s="31"/>
+      <c r="BB46" s="31"/>
+      <c r="BC46" s="31"/>
+      <c r="BD46" s="31"/>
+      <c r="BE46" s="31"/>
+      <c r="BF46" s="31"/>
+      <c r="BG46" s="31"/>
+      <c r="BH46" s="31"/>
+      <c r="BI46" s="31"/>
+      <c r="BJ46" s="31"/>
+      <c r="BK46" s="31"/>
+      <c r="BL46" s="31"/>
+    </row>
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="31"/>
+      <c r="BC47" s="31"/>
+      <c r="BD47" s="31"/>
+      <c r="BE47" s="31"/>
+      <c r="BF47" s="31"/>
+      <c r="BG47" s="31"/>
+      <c r="BH47" s="31"/>
+      <c r="BI47" s="31"/>
+      <c r="BJ47" s="31"/>
+      <c r="BK47" s="31"/>
+      <c r="BL47" s="31"/>
+    </row>
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48" s="31"/>
+      <c r="AP48" s="31"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="31"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="31"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="31"/>
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="31"/>
+      <c r="BC48" s="31"/>
+      <c r="BD48" s="31"/>
+      <c r="BE48" s="31"/>
+      <c r="BF48" s="31"/>
+      <c r="BG48" s="31"/>
+      <c r="BH48" s="31"/>
+      <c r="BI48" s="31"/>
+      <c r="BJ48" s="31"/>
+      <c r="BK48" s="31"/>
+      <c r="BL48" s="31"/>
+    </row>
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="33"/>
+      <c r="AL49" s="33"/>
+      <c r="AM49" s="33"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="33"/>
+      <c r="AQ49" s="33"/>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="33"/>
+      <c r="AT49" s="33"/>
+      <c r="AU49" s="33"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="33"/>
+      <c r="AY49" s="33"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="33"/>
+      <c r="BB49" s="33"/>
+      <c r="BC49" s="33"/>
+      <c r="BD49" s="33"/>
+      <c r="BE49" s="33"/>
+      <c r="BF49" s="33"/>
+      <c r="BG49" s="33"/>
+      <c r="BH49" s="33"/>
+      <c r="BI49" s="33"/>
+      <c r="BJ49" s="33"/>
+      <c r="BK49" s="33"/>
+      <c r="BL49" s="33"/>
+    </row>
+    <row r="50" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="11"/>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D37">
+  <conditionalFormatting sqref="D7:D49">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5044,12 +6017,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
+  <conditionalFormatting sqref="I5:BL49">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL37">
+  <conditionalFormatting sqref="I7:BL49">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
@@ -5069,7 +6042,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="1048575" man="1"/>
@@ -5093,7 +6066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5109,88 +6082,88 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="90.7109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="39" t="s">
+    <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+    <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5207,6 +6180,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5494,36 +6496,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5542,24 +6535,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>